--- a/src/components/BusDataMonitor/excel2json/protocol_template.xlsx
+++ b/src/components/BusDataMonitor/excel2json/protocol_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10062\Videos\Desktop\PyUtilDemos\src\components\BusDataMonitor\excel2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EF762-C53B-4845-9430-58617F18C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C952A-C44A-4CFC-9495-285C2CFB8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1650" windowWidth="26985" windowHeight="18420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="1050" windowWidth="26985" windowHeight="18420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="send422" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="355">
   <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,10 +1371,6 @@
   </si>
   <si>
     <t>recv422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10353,66 +10349,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D1A194-C82C-4FBE-831F-B3125B863C14}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>346</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5">
-        <v>64</v>
-      </c>
-      <c r="D2" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C3" s="5">
-        <v>128</v>
-      </c>
-      <c r="D3" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>353</v>
+      <c r="D3" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -10584,7 +10571,7 @@
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
